--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1288259.530447803</v>
+        <v>1285778.610622343</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>200.3339742160292</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579955</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104942</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>294.7036190798241</v>
       </c>
       <c r="X11" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,13 +1528,13 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358048</v>
@@ -1543,10 +1543,10 @@
         <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271169</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292092</v>
+        <v>7.830659072738385</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
         <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>23.83805571554969</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
         <v>338.352745183881</v>
@@ -1613,10 +1613,10 @@
         <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
-        <v>343.2728216010857</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9558991545849</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>384.0015790663269</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104937</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>173.4244441892126</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913425</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>23.64943725874874</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>33.17414283323752</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
         <v>119.5138160594427</v>
@@ -1777,10 +1777,10 @@
         <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
@@ -1828,7 +1828,7 @@
         <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6645067649683</v>
@@ -1844,22 +1844,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>195.6954497347408</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T17" t="n">
-        <v>72.31625413219133</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>168.3363911711808</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411914</v>
+        <v>22.4571372041191</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432833</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,16 +2056,16 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>275.0274093258334</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2084,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>239.1132486668483</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>179.0379714334861</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>208.0533602654133</v>
       </c>
       <c r="U22" t="n">
-        <v>274.7162491948554</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,22 +2318,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
         <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
         <v>312.3426554503346</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249335</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G25" t="n">
-        <v>154.5302192482712</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>214.2140663782812</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,16 +2719,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124552</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958333</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515424</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800338</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572726</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958336</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515424</v>
@@ -3190,22 +3190,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115153</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D37" t="n">
-        <v>93.13769105450051</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E37" t="n">
         <v>48.74924241846429</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
         <v>92.08430510333702</v>
@@ -3478,16 +3478,16 @@
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>205.4124289181743</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
         <v>120.8999331239899</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>92.28848050112541</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>42.20693826439323</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
@@ -3797,13 +3797,13 @@
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383233</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052287</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846421</v>
+        <v>99.70874824091553</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>170.2318734253259</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383236</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E46" t="n">
-        <v>90.95618068285773</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480643</v>
@@ -4192,16 +4192,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>170.2318734253262</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1627.529684993092</v>
+        <v>1393.541568121291</v>
       </c>
       <c r="C11" t="n">
-        <v>1425.172135279931</v>
+        <v>1051.771118440603</v>
       </c>
       <c r="D11" t="n">
-        <v>1094.098503932905</v>
+        <v>720.6974870935765</v>
       </c>
       <c r="E11" t="n">
-        <v>735.5023185943842</v>
+        <v>720.6974870935765</v>
       </c>
       <c r="F11" t="n">
-        <v>351.7084810645003</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645003</v>
+        <v>336.9036495636926</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299121</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3242.507220395988</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609172</v>
+        <v>3063.721540039934</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609172</v>
+        <v>3063.721540039934</v>
       </c>
       <c r="V11" t="n">
-        <v>3021.735001525325</v>
+        <v>2759.850719956087</v>
       </c>
       <c r="W11" t="n">
-        <v>2696.158413514935</v>
+        <v>2462.170296643133</v>
       </c>
       <c r="X11" t="n">
-        <v>2349.884722513578</v>
+        <v>2115.896605641778</v>
       </c>
       <c r="Y11" t="n">
-        <v>1986.93745779749</v>
+        <v>1752.949340925689</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.5250939555585</v>
+        <v>831.135599701811</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5250939555585</v>
+        <v>689.3914840336278</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029464</v>
+        <v>566.4669118810157</v>
       </c>
       <c r="E13" t="n">
-        <v>515.879495480277</v>
+        <v>445.7458855583462</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420902</v>
+        <v>326.0480053201595</v>
       </c>
       <c r="G13" t="n">
-        <v>255.670845876533</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541145</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
         <v>712.1345656402568</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2132.592352419404</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075785</v>
+        <v>2132.592352419404</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.289170905035</v>
+        <v>1938.017804248654</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.378371290402</v>
+        <v>1676.107004634021</v>
       </c>
       <c r="V13" t="n">
-        <v>1393.885950344239</v>
+        <v>1448.614583687858</v>
       </c>
       <c r="W13" t="n">
-        <v>1131.660847567002</v>
+        <v>1186.389480910621</v>
       </c>
       <c r="X13" t="n">
-        <v>1107.582003409881</v>
+        <v>985.591997272327</v>
       </c>
       <c r="Y13" t="n">
-        <v>913.9814915260746</v>
+        <v>985.591997272327</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2128.162174856051</v>
+        <v>1756.224298825207</v>
       </c>
       <c r="C14" t="n">
-        <v>1786.391725175364</v>
+        <v>1414.453849144519</v>
       </c>
       <c r="D14" t="n">
-        <v>1455.318093828337</v>
+        <v>1083.380217797493</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>724.784032458972</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589722</v>
+        <v>724.784032458972</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636926</v>
+        <v>336.9036495636923</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5297,31 +5297,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573495</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>2837.383130573495</v>
+        <v>3150.42961535744</v>
       </c>
       <c r="W14" t="n">
-        <v>2837.383130573495</v>
+        <v>2824.853027347049</v>
       </c>
       <c r="X14" t="n">
-        <v>2491.109439572139</v>
+        <v>2478.579336345693</v>
       </c>
       <c r="Y14" t="n">
-        <v>2128.162174856051</v>
+        <v>2115.632071629605</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>480.9510275436851</v>
+        <v>548.8807146680699</v>
       </c>
       <c r="C16" t="n">
-        <v>480.9510275436851</v>
+        <v>548.8807146680699</v>
       </c>
       <c r="D16" t="n">
-        <v>447.4417923585967</v>
+        <v>425.9561425154579</v>
       </c>
       <c r="E16" t="n">
-        <v>326.7207660359273</v>
+        <v>305.2351161927885</v>
       </c>
       <c r="F16" t="n">
-        <v>207.0228857977407</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.008292145084</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1781.433743974334</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1519.522944359701</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1292.030523413538</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>1029.805420636301</v>
+        <v>967.1670306535524</v>
       </c>
       <c r="X16" t="n">
-        <v>829.0079369980074</v>
+        <v>766.3695470152588</v>
       </c>
       <c r="Y16" t="n">
-        <v>635.407425114201</v>
+        <v>572.7690351314525</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934038</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>940.9592424104337</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446367</v>
+        <v>743.2870709612006</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628261</v>
+        <v>406.94286637939</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5531,7 +5531,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3216.910131998415</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>3038.021355480048</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2781.600168344275</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344275</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290992</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522977</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872289</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671189</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625802</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>326.080963687984</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604114</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5701,7 +5701,7 @@
         <v>1795.06160708844</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865763</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
         <v>1433.475525199204</v>
@@ -5710,13 +5710,13 @@
         <v>1253.432737201114</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356254</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454049</v>
+        <v>885.3094166817302</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096717</v>
+        <v>739.1585377459971</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.904057542001</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C20" t="n">
-        <v>1518.904057542001</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>1235.280059143048</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446363</v>
+        <v>924.1335067526009</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628257</v>
+        <v>587.7893021707901</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>247.3585522235836</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5820,10 +5820,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,16 +5832,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872289</v>
+        <v>569.1217789872286</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671189</v>
+        <v>474.8272962671186</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625802</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E22" t="n">
-        <v>326.080963687984</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604114</v>
+        <v>89.19609340604109</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865763</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062879</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064789</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356254</v>
+        <v>975.6272732356247</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454049</v>
+        <v>822.2794225454044</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096717</v>
+        <v>676.1285436096713</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
@@ -6002,37 +6002,37 @@
         <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2630.393665329807</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3296.525057137382</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3544.811418893064</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451032</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6063,10 +6063,10 @@
         <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130995</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
         <v>405.3192232934467</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138529</v>
+        <v>575.9874173775275</v>
       </c>
       <c r="C25" t="n">
-        <v>544.722928793743</v>
+        <v>481.6929346574176</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892042</v>
+        <v>406.2179954528788</v>
       </c>
       <c r="E25" t="n">
-        <v>395.976596214608</v>
+        <v>332.9466020782827</v>
       </c>
       <c r="F25" t="n">
-        <v>323.7283489244946</v>
+        <v>260.6983547881694</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706853</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634011</v>
+        <v>96.06173179634006</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591413</v>
+        <v>1260.298375591414</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762249</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>892.175055072029</v>
+        <v>829.1450609357033</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362958</v>
+        <v>682.9941819999702</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J26" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M26" t="n">
-        <v>2200.835586644152</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N26" t="n">
-        <v>2747.614403702934</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O26" t="n">
-        <v>3250.586874582271</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P26" t="n">
-        <v>3645.361240939449</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960312</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,61 +6449,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557148</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455613</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1128.819561633581</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>1662.351466305506</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697992</v>
+        <v>774.1010502697994</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899658</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257046</v>
+        <v>549.9474938257033</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913834</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415474</v>
+        <v>350.0437186415463</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643385</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302706</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
@@ -6655,16 +6655,16 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519657</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6692,10 +6692,10 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6704,25 +6704,25 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198916</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2548.674958929623</v>
+        <v>2533.71485819569</v>
       </c>
       <c r="O32" t="n">
-        <v>3051.64742980896</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
@@ -6734,16 +6734,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E34" t="n">
         <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415474</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960313</v>
@@ -6862,19 +6862,19 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498218</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572252</v>
@@ -6886,13 +6886,13 @@
         <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297368</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464971</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
@@ -6935,28 +6935,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6965,10 +6965,10 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
@@ -6990,70 +6990,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5641013650705</v>
+        <v>402.2593958170929</v>
       </c>
       <c r="C37" t="n">
-        <v>374.6279184371637</v>
+        <v>331.9946474630293</v>
       </c>
       <c r="D37" t="n">
         <v>280.5494426245369</v>
@@ -7096,16 +7096,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O37" t="n">
         <v>1617.076751502319</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1744.449641246691</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1621.35446039006</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1332.251593515704</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663014</v>
+        <v>835.3471215411935</v>
       </c>
       <c r="X37" t="n">
-        <v>847.333710764997</v>
+        <v>706.0290052170194</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953103</v>
+        <v>583.9078606473327</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7151,19 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464981</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830734</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7172,22 +7172,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296687</v>
@@ -7202,7 +7202,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7217,7 +7217,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.5784050866016</v>
+        <v>500.9308303909361</v>
       </c>
       <c r="C40" t="n">
-        <v>769.3136567325381</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>717.8684518940458</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.661277114358</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515028</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578154</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>835.3471215411932</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912684</v>
+        <v>706.0290052170192</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5554353429978</v>
+        <v>583.9078606473324</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,28 +7409,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7439,7 +7439,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
@@ -7488,13 +7488,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170923</v>
+        <v>453.7336441225989</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630288</v>
+        <v>383.4688957685353</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245365</v>
+        <v>332.023690930043</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218343</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058689</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U43" t="n">
-        <v>1323.410616184332</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V43" t="n">
-        <v>1068.726127978445</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W43" t="n">
-        <v>779.3089579414843</v>
+        <v>985.4928044205427</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431753</v>
+        <v>856.1746880963688</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734886</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7646,28 +7646,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7682,16 +7682,16 @@
         <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5641013650707</v>
+        <v>599.6022649647792</v>
       </c>
       <c r="C46" t="n">
-        <v>473.2993530110072</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D46" t="n">
-        <v>421.8541481725148</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E46" t="n">
         <v>329.9792181898302</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657633</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404823</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058689</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1323.410616184332</v>
+        <v>1422.082050758176</v>
       </c>
       <c r="V46" t="n">
-        <v>1068.726127978445</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>877.9803925153277</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X46" t="n">
-        <v>748.6622761911538</v>
+        <v>903.3718743647057</v>
       </c>
       <c r="Y46" t="n">
-        <v>626.541131621467</v>
+        <v>682.5792952211756</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.235310843063</v>
+        <v>157.2353108430627</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729006</v>
+        <v>184.4039433729002</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389601</v>
+        <v>191.4948909389596</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333064</v>
+        <v>181.0856325333059</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830238</v>
+        <v>179.3553748830232</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383987</v>
+        <v>182.8301554383982</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586583</v>
+        <v>190.8908035586578</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266122</v>
+        <v>192.0103836266119</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875973</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372532</v>
+        <v>113.6031223372529</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672272</v>
+        <v>105.9629718672268</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253591</v>
+        <v>104.1013981253586</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677632</v>
+        <v>92.30246558677588</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359733</v>
+        <v>106.882960835973</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798322</v>
+        <v>105.3113487798319</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615456</v>
+        <v>120.8212784615454</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564657</v>
+        <v>116.1755252564655</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085226</v>
+        <v>119.1996074085224</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140777</v>
+        <v>108.4284123140774</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530924</v>
+        <v>120.6694600530922</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662704</v>
+        <v>122.5080856662702</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8144253784345</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>274.0980055054512</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,13 +9875,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>21.13839585591376</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>40.02214132148688</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>74.68679478748601</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665423</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,19 +10352,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>402.5500016878926</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>306.6874953089252</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>138.018770967852</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>224.0750253717756</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>27.61720305046243</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.18134701018253</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443155</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>174.9514530863611</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>11.73740188404955</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830084</v>
+        <v>127.4076676937958</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302865</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>129.262396336062</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
-        <v>88.52118359784834</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271162</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292085</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>112.339637131802</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>57.70643280170987</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>41.67450974811573</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>41.6745097481153</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.575699570821598e-12</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.008970684779342e-12</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>986400.6831978048</v>
+        <v>986400.6831978046</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>814082.9363307067</v>
+        <v>814082.9363307065</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>814082.9363307067</v>
+        <v>814082.9363307066</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>885572.8387064242</v>
+        <v>885572.8387064243</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>942122.506905729</v>
+        <v>942122.5069057288</v>
       </c>
     </row>
     <row r="11">
@@ -26314,46 +26314,46 @@
         <v>532529.620166075</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="D2" t="n">
         <v>532544.1353738651</v>
       </c>
       <c r="E2" t="n">
-        <v>474201.0005882342</v>
+        <v>474201.0005882341</v>
       </c>
       <c r="F2" t="n">
-        <v>474201.0005882341</v>
+        <v>474201.000588234</v>
       </c>
       <c r="G2" t="n">
+        <v>516445.0338102493</v>
+      </c>
+      <c r="H2" t="n">
         <v>516445.0338102491</v>
-      </c>
-      <c r="H2" t="n">
-        <v>516445.0338102489</v>
       </c>
       <c r="I2" t="n">
         <v>533677.1504117845</v>
       </c>
       <c r="J2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="K2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="M2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="N2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="O2" t="n">
         <v>533677.1504117841</v>
       </c>
-      <c r="L2" t="n">
-        <v>533677.1504117841</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>533677.150411784</v>
-      </c>
-      <c r="N2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="O2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="P2" t="n">
-        <v>533677.1504117842</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552319</v>
+        <v>59764.55367552386</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487398</v>
+        <v>37580.10929487401</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983389</v>
+        <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.43302179698</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487398</v>
+        <v>37580.10929487401</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
-        <v>2.306933311047036e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475038</v>
+        <v>426120.6833475035</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.21797863741</v>
+        <v>39414.21797863746</v>
       </c>
       <c r="F4" t="n">
         <v>39414.21797863752</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007965</v>
+        <v>76442.37834007968</v>
       </c>
       <c r="H4" t="n">
         <v>76442.37834007965</v>
       </c>
       <c r="I4" t="n">
-        <v>89331.33560602844</v>
+        <v>89331.33560602843</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936337</v>
+        <v>86909.55729936334</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936325</v>
+        <v>86909.5572993633</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.5572993633</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="M4" t="n">
+        <v>91573.95495316933</v>
+      </c>
+      <c r="N4" t="n">
         <v>91573.95495316935</v>
       </c>
-      <c r="N4" t="n">
-        <v>91573.95495316944</v>
-      </c>
       <c r="O4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="P4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186637</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.4903648264</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482642</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521488</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
@@ -26494,22 +26494,22 @@
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624987</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
-      <c r="N5" t="n">
-        <v>82518.59730624987</v>
-      </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51877.39989368208</v>
+        <v>51872.98631581396</v>
       </c>
       <c r="C6" t="n">
-        <v>51877.3998936822</v>
+        <v>51872.98631581396</v>
       </c>
       <c r="D6" t="n">
-        <v>11509.9929189718</v>
+        <v>11505.63516882559</v>
       </c>
       <c r="E6" t="n">
-        <v>-731021.6799188614</v>
+        <v>-731250.4343412587</v>
       </c>
       <c r="F6" t="n">
-        <v>358217.2922447704</v>
+        <v>357988.5378223717</v>
       </c>
       <c r="G6" t="n">
-        <v>321903.9030500806</v>
+        <v>321837.6256785364</v>
       </c>
       <c r="H6" t="n">
-        <v>359484.0123449544</v>
+        <v>359417.73497341</v>
       </c>
       <c r="I6" t="n">
-        <v>335787.8186740801</v>
+        <v>335787.8186740803</v>
       </c>
       <c r="J6" t="n">
-        <v>331980.2184158178</v>
+        <v>331980.2184158179</v>
       </c>
       <c r="K6" t="n">
-        <v>357389.6514376147</v>
+        <v>357389.6514376148</v>
       </c>
       <c r="L6" t="n">
-        <v>319809.5421427407</v>
+        <v>319809.5421427409</v>
       </c>
       <c r="M6" t="n">
-        <v>157416.4981596404</v>
+        <v>157416.498159641</v>
       </c>
       <c r="N6" t="n">
-        <v>359584.5981523651</v>
+        <v>359584.5981523648</v>
       </c>
       <c r="O6" t="n">
-        <v>359584.5981523652</v>
+        <v>359584.5981523648</v>
       </c>
       <c r="P6" t="n">
-        <v>359584.5981523648</v>
+        <v>359584.5981523647</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790689</v>
+        <v>69.78465283790767</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26762,13 +26762,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022926</v>
@@ -26808,7 +26808,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951239</v>
+        <v>50.70958360951236</v>
       </c>
       <c r="N2" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790689</v>
+        <v>69.78465283790767</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755391</v>
+        <v>1019.99204775539</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873739</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758462</v>
+        <v>97.11452592758474</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959707</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859247</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104726</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780174</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672103</v>
+        <v>84.22861846672097</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987511</v>
+        <v>90.838291269875</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519078</v>
+        <v>84.46220888519068</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990234</v>
+        <v>7.649035050990069</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317045</v>
+        <v>75.62456067317032</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712641</v>
+        <v>26.92014658712644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712649</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075645</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W19" t="n">
-        <v>11.49558901075756</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="U22" t="n">
-        <v>11.4955890107575</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G25" t="n">
-        <v>11.49558901075707</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075591</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859358</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859348</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30144,10 +30144,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D37" t="n">
-        <v>55.47778196371185</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E37" t="n">
         <v>97.68472022810488</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>97.68472022810488</v>
@@ -30198,16 +30198,16 @@
         <v>97.68472022810488</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>46.72521440565373</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>97.68472022810488</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>97.68472022810488</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>97.68472022810488</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>54.14548214544376</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>46.7252144056541</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810496</v>
+        <v>46.72521440565365</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X43" t="n">
-        <v>55.47778196371127</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E46" t="n">
-        <v>55.47778196371144</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371092</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.280541317941334</v>
+        <v>0.2805413179413372</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366688</v>
+        <v>2.87309377236672</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993329</v>
+        <v>10.81556915993341</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362332</v>
+        <v>23.81059368362359</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767208</v>
+        <v>35.6859076720804</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102711</v>
+        <v>44.2715240310276</v>
       </c>
       <c r="M8" t="n">
-        <v>49.2606006939663</v>
+        <v>49.26060069396686</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356712</v>
+        <v>50.05768871356769</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328798</v>
+        <v>47.26805598328851</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661129</v>
+        <v>40.34219219661174</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783726</v>
+        <v>30.29530624783759</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313234</v>
+        <v>17.62255356313253</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588155</v>
+        <v>6.392835282588227</v>
       </c>
       <c r="T8" t="n">
-        <v>1.22806961928819</v>
+        <v>1.228069619288204</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530672</v>
+        <v>0.02244330543530697</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796488</v>
+        <v>0.1501028381796505</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840293</v>
+        <v>1.449677410840309</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694049</v>
+        <v>5.168014384694106</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906936</v>
+        <v>14.18142647906952</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710583</v>
+        <v>24.2383166371061</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264699</v>
+        <v>32.59140791264736</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665925</v>
+        <v>38.03263579665968</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655699</v>
+        <v>39.03924649655742</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847109</v>
+        <v>35.71328360847149</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449803</v>
+        <v>28.66305863449834</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447587</v>
+        <v>19.16049562447608</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882768022</v>
+        <v>9.319542882768127</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608825</v>
+        <v>2.788094384608856</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890228</v>
+        <v>0.6050197731890296</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345318</v>
+        <v>0.009875186722345429</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486845</v>
+        <v>0.125841177248686</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811032</v>
+        <v>1.118842466811045</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078624</v>
+        <v>3.784387403078666</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481997</v>
+        <v>8.896971231482096</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489262</v>
+        <v>14.62045677489278</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477261</v>
+        <v>18.70915102477282</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908243</v>
+        <v>19.72617653908265</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115553</v>
+        <v>19.25713215115575</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875043</v>
+        <v>17.78707839875064</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287726</v>
+        <v>15.21991838287743</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852394</v>
+        <v>10.53748257852406</v>
       </c>
       <c r="R10" t="n">
-        <v>5.65827693338176</v>
+        <v>5.658276933381823</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233893</v>
+        <v>2.193068516233917</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625611</v>
+        <v>0.5376850300625671</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00686406421356462</v>
+        <v>0.006864064213564696</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32786,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>72.49856320019263</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573245</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,16 +36370,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8674262666536</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>672.8599917248231</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597689</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36595,13 +36595,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>358.3296824113143</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>290.8164461252064</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>530.2769091798182</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>827.1370117794538</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597722</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37072,19 +37072,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>954.8518371008041</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>705.449481528297</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887917</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
@@ -37245,7 +37245,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564871</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38038,7 +38038,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
